--- a/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46,91%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>70,41%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37,25%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>68,3%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>47,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>42,63%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>69,39%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>26,56; 35,83</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42,09; 51,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39,02; 49,38</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>62,85; 77,51</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32,69; 41,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>44,47; 53,71</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36,19; 45,66</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>61,52; 75,18</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31,21; 37,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44,78; 51,26</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>39,56; 46,22</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>64,38; 74,6</t>
         </is>
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49,83%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45,98%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>67,78%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48,83%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,96%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>73,85%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>55,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>71,04%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>38,59; 45,88</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45,71; 53,55</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41,89; 49,85</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>61,85; 72,81</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44,85; 52,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>57,99; 65,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43,69; 51,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>69,03; 78,05</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42,42; 47,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52,54; 58,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44,0; 49,84</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>67,4; 74,4</t>
         </is>
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>44,85%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54,95%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49,05%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>74,35%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>55,23%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>66,6%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>57,63%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>78,26%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>53,31%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>76,35%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>40,71; 48,71</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>51,11; 59,03</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45,15; 52,84</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>70,64; 78,22</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51,32; 58,98</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62,65; 70,24</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53,41; 61,24</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>74,93; 80,99</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47,05; 52,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>58,07; 63,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50,48; 55,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>73,99; 78,7</t>
         </is>
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>50,57%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59,19%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54,56%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>76,2%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60,04%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70,6%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>80,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55,28%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>64,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56,9%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>78,12%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>45,83; 54,85</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>54,97; 63,37</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50,6; 58,57</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>72,16; 81,49</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55,82; 64,3</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66,72; 74,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55,21; 63,1</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>77,62; 82,42</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52,18; 58,73</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62,09; 67,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53,86; 59,44</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>75,79; 80,93</t>
         </is>
@@ -756,15 +1216,60 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>55,14%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>71,71%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62,31%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>79,08%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>60,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>69,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>82,49%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57,94%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>63,76%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>80,78%</t>
         </is>
@@ -779,15 +1284,60 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>49,64; 59,94</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>67,12; 75,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57,19; 66,52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>75,86; 82,26</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55,74; 65,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>64,57; 73,38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60,29; 69,1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>79,97; 84,83</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>54,46; 61,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>67,23; 73,97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60,18; 66,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>78,95; 82,97</t>
         </is>
@@ -806,15 +1356,60 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>65,17%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>79,41%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>69,88%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>83,59%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69,67%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>82,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>74,43%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>76,62%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>67,75%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>80,92%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72,46%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>79,45%</t>
         </is>
@@ -829,15 +1424,60 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>61,26; 69,35</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75,63; 82,63</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>66,42; 73,79</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>80,92; 85,71</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65,95; 73,06</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79,18; 84,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>70,99; 77,3</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>53,09; 86,56</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64,96; 70,32</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>78,61; 83,17</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,93; 75,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>62,77; 85,36</t>
         </is>
@@ -856,15 +1496,60 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>76,22%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55,83%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>67,92%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>77,32%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>63,89%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56,91%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>76,8%</t>
         </is>
@@ -879,15 +1564,60 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>45,5; 48,96</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>57,97; 61,53</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>52,64; 56,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>74,28; 77,95</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>54,02; 57,45</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>66,28; 69,5</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57,46; 60,9</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>70,15; 80,07</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>50,4; 52,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>62,56; 65,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>55,61; 58,08</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>72,65; 78,48</t>
         </is>
@@ -901,14 +1631,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,56; 35,83</t>
+          <t>26,94; 35,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,09; 51,85</t>
+          <t>42,39; 51,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,02; 49,38</t>
+          <t>39,67; 49,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,85; 77,51</t>
+          <t>62,89; 77,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,69; 41,56</t>
+          <t>32,93; 41,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,47; 53,71</t>
+          <t>44,71; 53,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,19; 45,66</t>
+          <t>36,23; 45,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,52; 75,18</t>
+          <t>61,38; 74,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,21; 37,09</t>
+          <t>31,45; 37,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,78; 51,26</t>
+          <t>44,56; 51,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,56; 46,22</t>
+          <t>39,49; 46,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,38; 74,6</t>
+          <t>64,11; 73,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,59; 45,88</t>
+          <t>38,57; 45,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,71; 53,55</t>
+          <t>46,1; 53,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,89; 49,85</t>
+          <t>41,89; 50,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,85; 72,81</t>
+          <t>61,49; 73,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,85; 52,75</t>
+          <t>44,86; 52,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,99; 65,84</t>
+          <t>57,98; 66,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,69; 51,98</t>
+          <t>44,01; 51,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,03; 78,05</t>
+          <t>69,09; 78,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,42; 47,99</t>
+          <t>42,5; 48,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,54; 58,06</t>
+          <t>52,37; 58,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,0; 49,84</t>
+          <t>44,1; 50,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,4; 74,4</t>
+          <t>67,62; 74,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,71; 48,71</t>
+          <t>40,83; 48,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,11; 59,03</t>
+          <t>51,02; 58,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,15; 52,84</t>
+          <t>45,02; 52,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,64; 78,22</t>
+          <t>70,21; 78,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,32; 58,98</t>
+          <t>51,51; 59,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,65; 70,24</t>
+          <t>63,14; 70,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,41; 61,24</t>
+          <t>54,2; 61,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,93; 80,99</t>
+          <t>74,94; 81,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,05; 52,82</t>
+          <t>47,59; 53,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,07; 63,44</t>
+          <t>58,24; 63,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,48; 55,88</t>
+          <t>50,57; 55,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,99; 78,7</t>
+          <t>73,7; 78,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,83; 54,85</t>
+          <t>46,06; 54,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,97; 63,37</t>
+          <t>54,91; 63,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,6; 58,57</t>
+          <t>50,58; 58,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,16; 81,49</t>
+          <t>72,43; 81,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,82; 64,3</t>
+          <t>55,58; 64,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,72; 74,35</t>
+          <t>66,93; 74,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,21; 63,1</t>
+          <t>55,38; 63,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,62; 82,42</t>
+          <t>77,61; 82,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,18; 58,73</t>
+          <t>52,14; 58,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,09; 67,74</t>
+          <t>62,07; 67,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,86; 59,44</t>
+          <t>53,93; 59,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,79; 80,93</t>
+          <t>75,84; 80,93</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,64; 59,94</t>
+          <t>49,67; 60,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,12; 75,79</t>
+          <t>67,11; 75,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,19; 66,52</t>
+          <t>57,32; 66,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,86; 82,26</t>
+          <t>75,97; 82,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,74; 65,3</t>
+          <t>56,04; 65,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,57; 73,38</t>
+          <t>64,71; 73,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,29; 69,1</t>
+          <t>60,64; 69,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,97; 84,83</t>
+          <t>79,82; 84,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,46; 61,39</t>
+          <t>54,27; 61,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,23; 73,97</t>
+          <t>67,07; 73,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,18; 66,99</t>
+          <t>60,71; 67,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>78,95; 82,97</t>
+          <t>78,75; 82,85</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,26; 69,35</t>
+          <t>61,08; 69,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>75,63; 82,63</t>
+          <t>75,53; 82,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,42; 73,79</t>
+          <t>66,27; 73,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>80,92; 85,71</t>
+          <t>81,35; 85,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,95; 73,06</t>
+          <t>65,9; 72,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>79,18; 84,85</t>
+          <t>79,27; 85,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,99; 77,3</t>
+          <t>70,75; 77,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53,09; 86,56</t>
+          <t>50,9; 86,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,96; 70,32</t>
+          <t>65,04; 70,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>78,61; 83,17</t>
+          <t>78,68; 83,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>69,93; 75,01</t>
+          <t>69,96; 75,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>62,77; 85,36</t>
+          <t>62,43; 85,35</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,5; 48,96</t>
+          <t>45,8; 49,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>57,97; 61,53</t>
+          <t>57,97; 61,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,64; 56,14</t>
+          <t>52,76; 56,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,28; 77,95</t>
+          <t>74,44; 77,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,02; 57,45</t>
+          <t>54,05; 57,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,28; 69,5</t>
+          <t>66,33; 69,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,46; 60,9</t>
+          <t>57,61; 60,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>70,15; 80,07</t>
+          <t>68,99; 80,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>50,4; 52,88</t>
+          <t>50,55; 52,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,56; 65,01</t>
+          <t>62,69; 65,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,61; 58,08</t>
+          <t>55,62; 58,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>72,65; 78,48</t>
+          <t>72,71; 78,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,41%</t>
+          <t>68,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>66,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>67,71%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,89; 77,29</t>
+          <t>60,56; 75,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,38; 74,79</t>
+          <t>59,23; 73,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,11; 73,9</t>
+          <t>61,55; 72,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>66,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>71,56%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,49; 73,09</t>
+          <t>60,12; 71,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,09; 78,22</t>
+          <t>70,14; 84,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,62; 74,89</t>
+          <t>67,31; 78,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,35%</t>
+          <t>73,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,26%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>75,53%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,21; 78,2</t>
+          <t>69,39; 77,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,94; 81,08</t>
+          <t>74,25; 80,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,7; 78,61</t>
+          <t>73,0; 77,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>80,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>80,0%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>80,24%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,43; 81,72</t>
+          <t>71,78; 91,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,61; 82,52</t>
+          <t>77,67; 83,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,84; 80,93</t>
+          <t>75,81; 88,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>79,08%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>80,19%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,97; 82,36</t>
+          <t>75,22; 81,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,82; 84,76</t>
+          <t>79,35; 84,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>78,75; 82,85</t>
+          <t>78,13; 82,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>65,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>77,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>83,59%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,67%</t>
+          <t>69,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>73,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>71,49%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,45%</t>
+          <t>66,45%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,08; 69,08</t>
+          <t>59,4; 70,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>75,53; 82,7</t>
+          <t>72,46; 82,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,27; 73,55</t>
+          <t>64,27; 74,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>81,35; 85,92</t>
+          <t>77,55; 84,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,9; 72,91</t>
+          <t>64,65; 74,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>79,27; 85,05</t>
+          <t>76,76; 85,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,75; 77,66</t>
+          <t>68,62; 77,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>50,9; 86,47</t>
+          <t>18,92; 87,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,04; 70,45</t>
+          <t>63,62; 70,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>78,68; 83,06</t>
+          <t>76,35; 82,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>69,96; 75,05</t>
+          <t>68,06; 74,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>62,43; 85,35</t>
+          <t>39,57; 84,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>65,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>54,48%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>76,22%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>82,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>84,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>68,16%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>84,92%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>58,56; 71,55</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>75,84; 86,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>64,54; 75,4</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82,11; 88,88</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65,08; 75,28</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>78,75; 86,72</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>70,5; 80,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>81,53; 86,56</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>63,97; 72,21</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>78,99; 85,41</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>69,46; 76,86</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82,65; 86,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>76,5%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>55,83%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>67,92%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>74,95%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>63,89%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>56,91%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>75,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>45,8; 49,27</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>57,97; 61,52</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>52,76; 56,16</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>74,44; 77,95</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73,96; 81,58</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>54,05; 57,36</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>66,33; 69,45</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>57,61; 60,95</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>68,99; 80,1</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>60,58; 79,98</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>50,55; 52,86</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>62,69; 65,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>55,62; 58,07</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>72,71; 78,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>68,8; 78,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,94; 35,31</t>
+          <t>26,89; 35,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,39; 51,53</t>
+          <t>41,96; 51,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,67; 49,16</t>
+          <t>39,06; 49,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,56; 75,84</t>
+          <t>60,06; 76,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,93; 41,51</t>
+          <t>32,84; 41,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,71; 53,96</t>
+          <t>44,42; 53,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,23; 45,41</t>
+          <t>36,25; 46,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,23; 73,23</t>
+          <t>57,62; 73,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 37,09</t>
+          <t>31,12; 36,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,56; 51,32</t>
+          <t>44,69; 51,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,49; 46,65</t>
+          <t>39,25; 46,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,55; 72,43</t>
+          <t>61,79; 72,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 45,78</t>
+          <t>38,65; 45,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,1; 53,63</t>
+          <t>45,81; 53,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,89; 50,12</t>
+          <t>41,99; 50,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,12; 71,91</t>
+          <t>60,67; 72,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,86; 52,9</t>
+          <t>44,77; 53,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,98; 66,07</t>
+          <t>57,27; 65,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,01; 51,98</t>
+          <t>44,14; 52,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,14; 84,12</t>
+          <t>69,87; 85,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,5; 48,06</t>
+          <t>42,6; 47,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,37; 58,0</t>
+          <t>52,73; 58,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,1; 50,03</t>
+          <t>43,85; 49,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,31; 78,46</t>
+          <t>66,92; 77,76</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,83; 48,88</t>
+          <t>41,04; 48,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,02; 58,7</t>
+          <t>50,83; 59,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,02; 52,73</t>
+          <t>45,16; 52,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,39; 77,51</t>
+          <t>69,67; 77,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,51; 59,22</t>
+          <t>51,51; 58,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,14; 70,17</t>
+          <t>62,81; 69,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,2; 61,24</t>
+          <t>53,69; 61,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,25; 80,49</t>
+          <t>74,47; 80,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,59; 53,05</t>
+          <t>47,53; 53,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,24; 63,24</t>
+          <t>58,14; 63,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,57; 55,96</t>
+          <t>50,2; 55,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,0; 77,89</t>
+          <t>73,07; 78,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,06; 54,87</t>
+          <t>45,92; 54,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,91; 63,16</t>
+          <t>55,05; 63,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,58; 58,73</t>
+          <t>50,84; 59,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,78; 91,84</t>
+          <t>71,5; 92,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,58; 64,08</t>
+          <t>55,61; 64,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,93; 74,71</t>
+          <t>66,07; 74,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,38; 63,12</t>
+          <t>55,43; 63,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,67; 83,82</t>
+          <t>77,48; 83,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,14; 58,3</t>
+          <t>52,13; 58,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,07; 67,83</t>
+          <t>62,11; 67,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>53,93; 59,76</t>
+          <t>54,0; 59,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,81; 88,05</t>
+          <t>75,92; 89,18</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,67; 60,33</t>
+          <t>49,96; 59,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,11; 75,85</t>
+          <t>67,11; 76,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,32; 66,7</t>
+          <t>57,57; 66,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,22; 81,82</t>
+          <t>74,89; 81,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,04; 65,83</t>
+          <t>55,56; 65,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,71; 73,56</t>
+          <t>63,66; 73,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,64; 69,51</t>
+          <t>60,26; 69,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,35; 84,28</t>
+          <t>79,57; 84,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,27; 61,21</t>
+          <t>54,15; 61,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,07; 73,51</t>
+          <t>67,36; 73,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,71; 67,08</t>
+          <t>60,37; 66,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>78,13; 82,38</t>
+          <t>77,97; 82,11</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,4; 70,59</t>
+          <t>59,71; 70,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,46; 82,53</t>
+          <t>72,19; 81,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,27; 74,3</t>
+          <t>63,6; 74,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77,55; 84,13</t>
+          <t>77,47; 84,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,65; 74,03</t>
+          <t>64,25; 73,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,76; 85,26</t>
+          <t>76,83; 85,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,62; 77,69</t>
+          <t>68,13; 77,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 87,64</t>
+          <t>24,35; 87,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63,62; 70,73</t>
+          <t>63,69; 70,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>76,35; 82,68</t>
+          <t>76,24; 82,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,06; 74,82</t>
+          <t>67,79; 74,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,57; 84,91</t>
+          <t>35,72; 84,68</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>58,56; 71,55</t>
+          <t>58,47; 71,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,84; 86,61</t>
+          <t>75,56; 86,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64,54; 75,4</t>
+          <t>65,04; 75,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,11; 88,88</t>
+          <t>82,55; 89,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,08; 75,28</t>
+          <t>64,76; 75,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,75; 86,72</t>
+          <t>78,39; 86,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>70,5; 80,06</t>
+          <t>70,39; 80,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81,53; 86,56</t>
+          <t>81,45; 86,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>63,97; 72,21</t>
+          <t>64,15; 71,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>78,99; 85,41</t>
+          <t>78,66; 85,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>69,46; 76,86</t>
+          <t>69,58; 76,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>82,65; 86,77</t>
+          <t>82,76; 86,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45,8; 49,27</t>
+          <t>45,44; 49,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>57,97; 61,52</t>
+          <t>57,88; 61,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,76; 56,16</t>
+          <t>52,87; 56,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>73,96; 81,58</t>
+          <t>73,84; 81,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,05; 57,36</t>
+          <t>54,08; 57,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,33; 69,45</t>
+          <t>66,3; 69,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,61; 60,95</t>
+          <t>57,74; 60,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60,58; 79,98</t>
+          <t>60,78; 79,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>50,55; 52,86</t>
+          <t>50,38; 52,89</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>62,69; 65,03</t>
+          <t>62,72; 65,06</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>55,62; 58,07</t>
+          <t>55,68; 58,12</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>68,8; 78,7</t>
+          <t>68,49; 78,59</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume frutas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>153343</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>213050</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>185807</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>275168</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>173737</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>211268</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>160886</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>207758</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>327081</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>424318</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>346692</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>482926</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>132590; 173241</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>190574; 234098</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>163471; 205879</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>240229; 305586</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>153166; 193201</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>191110; 231986</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>143108; 183271</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>180481; 228871</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>298595; 354050</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>395225; 454280</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>319215; 375780</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>440651; 518677</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>309061</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>341872</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>271084</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>282002</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>305399</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>376981</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>270277</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>387119</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>614459</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>718854</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>541361</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>669121</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>283874; 337391</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>314292; 368327</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>247532; 295359</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>256950; 306059</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>280008; 331789</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>348956; 398867</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>248776; 294613</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>357390; 436860</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>579425; 652083</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>683057; 758982</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>505587; 575776</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>625707; 727139</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>286074</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>374689</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>327299</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>393937</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>380967</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>472674</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>380205</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>420807</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>667041</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>847363</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>707504</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>814743</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>261719; 312274</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>346625; 403227</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>301352; 351852</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>373575; 416900</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>355292; 405808</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>445750; 496680</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>354201; 405650</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>403982; 437161</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>630995; 705343</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>809035; 883074</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>666161; 741564</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>788158; 841659</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1392</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>262507</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>362577</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>352460</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>713710</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>309018</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>434268</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>383827</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>569885</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>571525</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>796845</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>736287</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1283595</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>238371; 284946</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>337238; 389092</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>328456; 381346</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>634750; 816790</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>286216; 330718</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>406392; 456955</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>359152; 409393</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>551607; 592823</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>538931; 605652</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>762580; 830867</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>698805; 774331</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1214514; 1426623</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>213225</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>307963</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>297114</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>439357</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>244930</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>310256</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>323684</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>448875</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>458155</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>618220</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>620797</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>888232</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>193198; 231211</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>288175; 327580</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>274525; 316774</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>419562; 458099</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>224437; 263858</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>285085; 330398</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>299414; 346082</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>435585; 461998</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>428189; 485707</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>590886; 647090</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>587791; 650510</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>863651; 909496</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>190740</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>239997</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>231591</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>298205</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>237604</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>287778</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>275199</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>349561</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>428344</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>527775</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>506790</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>647766</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>174703; 206055</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>222938; 252898</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>211948; 246828</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>285202; 310351</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>220337; 253739</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>271987; 301205</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>255952; 292092</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>147744; 533372</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>404776; 450261</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>505319; 549156</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>480567; 529532</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>348208; 825487</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>136709</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>202790</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>180264</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>243303</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>233955</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>318576</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>302237</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>358095</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>370664</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>521366</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>482501</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>601398</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>122710; 149724</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>187986; 215452</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>166563; 193394</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>233420; 252027</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>216225; 250509</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>301681; 332515</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>281696; 321004</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>346533; 368816</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>348826; 391278</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>498455; 540151</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>456635; 502990</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>586135; 614984</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2244</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4144</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3706</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>6938</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1551659</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2042940</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1845619</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2645683</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1885611</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2411801</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2096313</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2742099</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3437270</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4454740</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3941932</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5387783</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1487611; 1606903</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1980512; 2099905</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1790896; 1905519</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2553818; 2809474</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1826413; 1944171</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2354136; 2471592</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2043265; 2157069</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2223756; 2925491</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3350941; 3517571</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4373026; 4536435</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3856856; 4025210</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>4874598; 5593685</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>